--- a/40_Arbeitjournal/Arbeitsjournal.xlsx
+++ b/40_Arbeitjournal/Arbeitsjournal.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b7schal\Documents\GitHub\GEM\40_Arbeitjournal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Documents\GitHub\GEM\40_Arbeitjournal\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C0C883-7AC1-4AC3-B766-4FAE132430EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="67">
   <si>
     <t>Datum</t>
   </si>
@@ -122,9 +123,6 @@
     <t>Schule</t>
   </si>
   <si>
-    <t>Hauptprogramm erweitert</t>
-  </si>
-  <si>
     <t>Mehr Zeit benötigt</t>
   </si>
   <si>
@@ -158,9 +156,6 @@
     <t>Freizeit</t>
   </si>
   <si>
-    <t>16.01.</t>
-  </si>
-  <si>
     <t>Ferien</t>
   </si>
   <si>
@@ -174,12 +169,69 @@
   </si>
   <si>
     <t>Verzuögerung der Lieferung des Materials</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>Motor Ansteuerung fertig programmiert</t>
+  </si>
+  <si>
+    <t>Dokumentation Motor</t>
+  </si>
+  <si>
+    <t>Motor programm vorbereitet für Abstimmung</t>
+  </si>
+  <si>
+    <t>Hauptprogramm mit Kommunikaton erweitert</t>
+  </si>
+  <si>
+    <t>Dispaly testen</t>
+  </si>
+  <si>
+    <t>Kommunikations funktioniert nicht</t>
+  </si>
+  <si>
+    <t>Motor programm Anpassungen</t>
+  </si>
+  <si>
+    <t>Behoben</t>
+  </si>
+  <si>
+    <t>Motor Abstimmen, Ruckler behoben</t>
+  </si>
+  <si>
+    <t>Mechanische Aufbau fertig, erste Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation </t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>Hauptprogramm erweitert, elektrischer Testaufbau</t>
+  </si>
+  <si>
+    <t>Schule / Freizeit</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>Kommunikation lesen funktionniert nicht</t>
+  </si>
+  <si>
+    <t>Kunststoffgehäuse, Display Kommunikation</t>
+  </si>
+  <si>
+    <t>Weitere Tests -&gt; Positionen anpassen, Dokumentation, Hauptprogramm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -282,18 +334,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -311,8 +357,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,17 +651,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="67.85546875" customWidth="1"/>
     <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -627,27 +686,27 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -665,45 +724,45 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -721,45 +780,45 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="15" t="s">
+      <c r="D7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -777,50 +836,50 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="D10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
@@ -833,50 +892,50 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="D13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
@@ -889,50 +948,50 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="15" t="s">
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="B17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>10</v>
@@ -945,335 +1004,562 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="15" t="s">
+      <c r="D19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="A20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="15" t="s">
+      <c r="D22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>43489</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E34" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="F34" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E35" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
+      <c r="A36" s="17">
+        <v>43495</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
+      <c r="A39" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7"/>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
+      <c r="A42" s="17">
+        <v>43516</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19"/>
+      <c r="B44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="20">
+        <v>43519</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20">
+        <v>43520</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="A47" s="17">
+        <v>43523</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
       <c r="F49" s="4"/>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A17:A19"/>
+  <mergeCells count="16">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A47:A49"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/40_Arbeitjournal/Arbeitsjournal.xlsx
+++ b/40_Arbeitjournal/Arbeitsjournal.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Documents\GitHub\GEM\40_Arbeitjournal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b7schal\Documents\GitHub\GEM\40_Arbeitjournal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C0C883-7AC1-4AC3-B766-4FAE132430EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="76">
   <si>
     <t>Datum</t>
   </si>
@@ -195,9 +194,6 @@
     <t>Motor programm Anpassungen</t>
   </si>
   <si>
-    <t>Behoben</t>
-  </si>
-  <si>
     <t>Motor Abstimmen, Ruckler behoben</t>
   </si>
   <si>
@@ -226,12 +222,42 @@
   </si>
   <si>
     <t>Weitere Tests -&gt; Positionen anpassen, Dokumentation, Hauptprogramm</t>
+  </si>
+  <si>
+    <t>elektrische Verdrahtung, Software Tests</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spannungsversorgung HMI </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software Tests, Dokumenation</t>
+  </si>
+  <si>
+    <t>Dokumenation</t>
+  </si>
+  <si>
+    <t>Mechanischer Aufbau</t>
+  </si>
+  <si>
+    <t>Display programmieren, Kommunikation, Dokumentation</t>
+  </si>
+  <si>
+    <t>Kommunikation, lesen der Daten nun möglich</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>Mechanischer Aufbau, Dokumentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,12 +345,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -348,16 +371,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -366,11 +389,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,11 +674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,881 +709,1008 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="B17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="10" t="s">
+      <c r="C23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="10" t="s">
+      <c r="C28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="13" t="s">
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="10"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="13" t="s">
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+      <c r="A34" s="15">
         <v>43489</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="C34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16"/>
-      <c r="B35" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+      <c r="A36" s="15">
         <v>43495</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
+      <c r="B36" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
+      <c r="B39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13"/>
+      <c r="B41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+      <c r="A42" s="15">
         <v>43516</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="9" t="s">
+      <c r="C44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
+        <v>43519</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="E45" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="6" t="s">
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
+        <v>43520</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="E46" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>43523</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="12" t="s">
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
+        <v>43524</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="13" t="s">
+      <c r="E50" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20">
-        <v>43519</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="20">
-        <v>43520</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
-        <v>43523</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="3"/>
-    </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="3"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="3"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="3"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+  <mergeCells count="17">
+    <mergeCell ref="A50:A52"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A47:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/40_Arbeitjournal/Arbeitsjournal.xlsx
+++ b/40_Arbeitjournal/Arbeitsjournal.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b7schal\Documents\GitHub\GEM\40_Arbeitjournal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Documents\GitHub\GEM\40_Arbeitjournal\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7826BFB5-E5A8-4400-B057-85E091483736}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -257,7 +258,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,9 +381,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,6 +391,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,11 +675,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +730,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -747,7 +748,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -765,7 +766,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -785,7 +786,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -803,7 +804,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
@@ -821,7 +822,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -841,7 +842,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -859,7 +860,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
@@ -877,7 +878,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -897,7 +898,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
@@ -915,7 +916,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
@@ -933,7 +934,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -953,7 +954,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
@@ -971,7 +972,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
@@ -989,7 +990,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1009,7 +1010,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1027,7 +1028,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -1045,7 +1046,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1065,7 +1066,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1083,7 +1084,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1101,7 +1102,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1121,7 +1122,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1139,7 +1140,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
@@ -1157,7 +1158,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1177,7 +1178,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
       </c>
@@ -1195,7 +1196,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -1215,7 +1216,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
@@ -1233,7 +1234,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="3" t="s">
         <v>55</v>
       </c>
@@ -1251,7 +1252,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -1267,7 +1268,7 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
@@ -1285,7 +1286,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="3" t="s">
         <v>51</v>
       </c>
@@ -1323,7 +1324,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="3" t="s">
         <v>56</v>
       </c>
@@ -1361,7 +1362,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="2" t="s">
         <v>71</v>
       </c>
@@ -1379,7 +1380,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="3" t="s">
         <v>67</v>
       </c>
@@ -1397,7 +1398,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -1417,7 +1418,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="2" t="s">
         <v>75</v>
       </c>
@@ -1435,7 +1436,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="3" t="s">
         <v>72</v>
       </c>
@@ -1473,7 +1474,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="2" t="s">
         <v>57</v>
       </c>
@@ -1491,7 +1492,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="3" t="s">
         <v>58</v>
       </c>
@@ -1569,7 +1570,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="2" t="s">
         <v>66</v>
       </c>
@@ -1587,7 +1588,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="3" t="s">
         <v>67</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>42</v>
@@ -1625,7 +1626,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="2" t="s">
         <v>70</v>
       </c>
@@ -1643,15 +1644,15 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>42</v>
@@ -1694,11 +1695,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A2:A4"/>
@@ -1706,6 +1702,11 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A39:A41"/>

--- a/40_Arbeitjournal/Arbeitsjournal.xlsx
+++ b/40_Arbeitjournal/Arbeitsjournal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Documents\GitHub\GEM\40_Arbeitjournal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7826BFB5-E5A8-4400-B057-85E091483736}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292D1BB3-6EDE-49CF-851C-F9E5095109A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,9 +240,6 @@
     <t>Dokumenation</t>
   </si>
   <si>
-    <t>Mechanischer Aufbau</t>
-  </si>
-  <si>
     <t>Display programmieren, Kommunikation, Dokumentation</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>Mechanischer Aufbau, Dokumentation</t>
+  </si>
+  <si>
+    <t>Mechanischer Aufbau, Zusatzteile gefertigt</t>
   </si>
 </sst>
 </file>
@@ -378,6 +378,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,15 +394,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +710,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -730,7 +730,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -748,7 +748,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -766,7 +766,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -786,7 +786,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -804,7 +804,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
@@ -822,7 +822,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -842,7 +842,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -860,7 +860,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
@@ -878,7 +878,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -898,7 +898,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
@@ -916,7 +916,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
@@ -934,7 +934,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -954,7 +954,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
@@ -972,7 +972,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
@@ -990,7 +990,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1010,7 +1010,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1028,7 +1028,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -1046,7 +1046,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1066,7 +1066,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1084,7 +1084,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1102,7 +1102,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1122,7 +1122,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1140,7 +1140,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
@@ -1158,7 +1158,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1178,7 +1178,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
       </c>
@@ -1196,7 +1196,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -1216,7 +1216,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
@@ -1234,7 +1234,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="3" t="s">
         <v>55</v>
       </c>
@@ -1252,7 +1252,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -1268,7 +1268,7 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
@@ -1286,7 +1286,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="3" t="s">
         <v>51</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="A34" s="18">
         <v>43489</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -1324,7 +1324,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="3" t="s">
         <v>56</v>
       </c>
@@ -1342,11 +1342,11 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
+      <c r="A36" s="18">
         <v>43495</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>7</v>
@@ -1362,9 +1362,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>7</v>
@@ -1380,7 +1380,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="3" t="s">
         <v>67</v>
       </c>
@@ -1398,11 +1398,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>7</v>
@@ -1418,15 +1418,15 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>31</v>
@@ -1436,9 +1436,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -1454,7 +1454,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
+      <c r="A42" s="18">
         <v>43516</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -1474,7 +1474,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="2" t="s">
         <v>57</v>
       </c>
@@ -1492,7 +1492,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="3" t="s">
         <v>58</v>
       </c>
@@ -1550,7 +1550,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
+      <c r="A47" s="18">
         <v>43523</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="2" t="s">
         <v>66</v>
       </c>
@@ -1588,7 +1588,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="3" t="s">
         <v>67</v>
       </c>
@@ -1606,7 +1606,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="15">
+      <c r="A50" s="18">
         <v>43524</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -1626,7 +1626,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="2" t="s">
         <v>70</v>
       </c>
@@ -1644,7 +1644,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="3" t="s">
         <v>69</v>
       </c>
@@ -1695,13 +1695,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A28:A30"/>
@@ -1712,6 +1705,13 @@
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/40_Arbeitjournal/Arbeitsjournal.xlsx
+++ b/40_Arbeitjournal/Arbeitsjournal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Documents\GitHub\GEM\50_Dokumentation\Abgabe\Anhang\4.Arbeitsjournal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1792A0C4-2C85-4629-AC5E-40830C75D966}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189CA6BA-86DE-4B0B-BADE-B6FCFEAFB2C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="72">
   <si>
     <t>Datum</t>
   </si>
@@ -269,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -355,20 +355,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -416,21 +407,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -438,9 +414,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,7 +721,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="A53" sqref="A53:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +755,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -782,7 +778,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="6" t="s">
         <v>66</v>
       </c>
@@ -803,7 +799,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -824,7 +820,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -847,7 +843,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="2" t="s">
         <v>69</v>
       </c>
@@ -868,7 +864,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -889,7 +885,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -912,7 +908,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="2" t="s">
         <v>51</v>
       </c>
@@ -933,7 +929,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
@@ -954,7 +950,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -977,7 +973,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="2" t="s">
         <v>52</v>
       </c>
@@ -998,7 +994,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
@@ -1019,7 +1015,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="27" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1042,7 +1038,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
@@ -1063,7 +1059,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="3" t="s">
         <v>65</v>
       </c>
@@ -1084,7 +1080,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1107,7 +1103,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
@@ -1128,7 +1124,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="3" t="s">
         <v>65</v>
       </c>
@@ -1149,7 +1145,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1172,7 +1168,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1193,7 +1189,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
@@ -1214,7 +1210,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1237,7 +1233,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
@@ -1258,7 +1254,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
@@ -1279,7 +1275,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1302,7 +1298,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
@@ -1323,7 +1319,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1346,7 +1342,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="2" t="s">
         <v>67</v>
       </c>
@@ -1367,7 +1363,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="3" t="s">
         <v>37</v>
       </c>
@@ -1388,7 +1384,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1411,7 +1407,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="2" t="s">
         <v>18</v>
       </c>
@@ -1432,7 +1428,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
@@ -1453,7 +1449,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="24">
         <v>43489</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -1476,7 +1472,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="3" t="s">
         <v>61</v>
       </c>
@@ -1497,7 +1493,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
+      <c r="A36" s="24">
         <v>43495</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1520,7 +1516,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
@@ -1541,7 +1537,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
@@ -1562,7 +1558,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -1585,7 +1581,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="2" t="s">
         <v>62</v>
       </c>
@@ -1606,7 +1602,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="3" t="s">
         <v>46</v>
       </c>
@@ -1627,7 +1623,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+      <c r="A42" s="24">
         <v>43516</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -1650,7 +1646,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="2" t="s">
         <v>60</v>
       </c>
@@ -1671,7 +1667,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="3" t="s">
         <v>38</v>
       </c>
@@ -1727,7 +1723,7 @@
       <c r="D46" s="12">
         <v>8</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="19" t="s">
         <v>70</v>
       </c>
       <c r="F46" s="12" t="s">
@@ -1738,7 +1734,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
+      <c r="A47" s="24">
         <v>43523</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -1761,7 +1757,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
@@ -1782,7 +1778,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="3" t="s">
         <v>44</v>
       </c>
@@ -1803,7 +1799,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
+      <c r="A50" s="24">
         <v>43524</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -1826,7 +1822,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="2" t="s">
         <v>44</v>
       </c>
@@ -1847,7 +1843,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="3" t="s">
         <v>71</v>
       </c>
@@ -1868,56 +1864,97 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
+      <c r="A53" s="24">
+        <v>43525</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="16">
+        <v>1</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="25"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="25"/>
+      <c r="B54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="17">
+        <v>1</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="26"/>
+      <c r="B55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="18">
+        <v>1</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="20"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="25"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="20"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A53:A55"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A23:A25"/>
@@ -1934,8 +1971,6 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
